--- a/Doc/计划表/融创设计协同办公平台开发计划表-20190914.xlsx
+++ b/Doc/计划表/融创设计协同办公平台开发计划表-20190914.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\计划表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998253D-960D-403F-A4FC-DF89BD8F4A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234ED37C-73FF-478C-9C95-EC74376924F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="28800" windowHeight="15255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目整体实施计划" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="404">
   <si>
     <t>工作内容项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,6 +1603,10 @@
   </si>
   <si>
     <t>宋建龙、江文韬</t>
+  </si>
+  <si>
+    <t>防水尚未确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1971,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2125,9 +2129,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2168,12 +2169,6 @@
     <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,9 +2216,6 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2271,12 +2263,104 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2554,13 +2638,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="59" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="2" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="3" hidden="1" customWidth="1"/>
@@ -2568,25 +2652,25 @@
     <col min="7" max="7" width="21" style="40" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="40" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="63" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="62" customWidth="1"/>
     <col min="11" max="11" width="16.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
@@ -2616,7 +2700,7 @@
       <c r="I2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>196</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -2646,7 +2730,7 @@
       <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="41"/>
@@ -2675,7 +2759,7 @@
       <c r="H4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="33"/>
@@ -2704,7 +2788,7 @@
       <c r="H5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="33" t="s">
@@ -2735,7 +2819,7 @@
       <c r="H6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="33" t="s">
@@ -2766,7 +2850,7 @@
       <c r="H7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="33" t="s">
@@ -2804,7 +2888,7 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>2.1</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -2826,7 +2910,7 @@
       <c r="H9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="33" t="s">
@@ -2835,7 +2919,7 @@
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.35">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -2857,14 +2941,14 @@
       <c r="H10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="57">
+      <c r="A11" s="56">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2886,14 +2970,14 @@
       <c r="H11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>2.4</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -2915,14 +2999,14 @@
       <c r="H12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="57">
+      <c r="A13" s="56">
         <v>2.5</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -2951,7 +3035,7 @@
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>2.6</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -2970,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>330</v>
@@ -3025,7 +3109,7 @@
       <c r="H16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="33" t="s">
@@ -3057,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="23"/>
@@ -3081,7 +3165,7 @@
       <c r="H18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="33" t="s">
@@ -3112,7 +3196,7 @@
       <c r="H19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="64" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="33" t="s">
@@ -3291,7 +3375,7 @@
         <v>171</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="23"/>
@@ -3320,7 +3404,7 @@
         <v>170</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="23"/>
@@ -3678,7 +3762,7 @@
       <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.35">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="57" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -3844,7 +3928,7 @@
       <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="57" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -4076,7 +4160,7 @@
       <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="57" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="25" t="s">
@@ -4254,7 +4338,7 @@
       <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="57" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="25" t="s">
@@ -4376,7 +4460,7 @@
       <c r="K62" s="23"/>
     </row>
     <row r="63" spans="1:11" ht="99" x14ac:dyDescent="0.35">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="57" t="s">
         <v>318</v>
       </c>
       <c r="B63" s="25" t="s">
@@ -4407,7 +4491,7 @@
       <c r="K63" s="23"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4416,11 +4500,11 @@
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="62"/>
+      <c r="J64" s="61"/>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4429,11 +4513,11 @@
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="62"/>
+      <c r="J65" s="61"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="59"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4442,7 +4526,7 @@
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="62"/>
+      <c r="J66" s="61"/>
       <c r="K66" s="5"/>
     </row>
   </sheetData>
@@ -4450,6 +4534,14 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="进行中">
+      <formula>NOT(ISERROR(SEARCH("进行中",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成,提前完成,滞后已完成,滞后未完成"</formula1>
@@ -4464,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4476,7 +4568,7 @@
     <col min="5" max="5" width="42.75" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
@@ -4507,7 +4599,7 @@
       <c r="I1" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>340</v>
       </c>
       <c r="K1" s="50"/>
@@ -4516,10 +4608,10 @@
       <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="93" t="s">
         <v>204</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -4531,14 +4623,16 @@
       <c r="F2" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="102">
         <v>43672</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="102">
         <v>43677</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="69" t="s">
+      <c r="I2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="103" t="s">
         <v>341</v>
       </c>
       <c r="K2" s="50"/>
@@ -4547,8 +4641,8 @@
       <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="28" t="s">
         <v>208</v>
       </c>
@@ -4558,22 +4652,24 @@
       <c r="F3" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="102">
         <v>43672</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="102">
         <v>43677</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="103"/>
       <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="93" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -4585,22 +4681,24 @@
       <c r="F4" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="102">
         <v>43672</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="102">
         <v>43677</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="103"/>
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="28" t="s">
         <v>213</v>
       </c>
@@ -4610,21 +4708,23 @@
       <c r="F5" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="102">
         <v>43672</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="102">
         <v>43677</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="103"/>
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="90" t="s">
         <v>215</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -4639,22 +4739,24 @@
       <c r="F6" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="102">
         <v>43678</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="102">
         <v>43679</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="69"/>
+      <c r="I6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="103"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="98" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="94" t="s">
         <v>220</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4666,22 +4768,24 @@
       <c r="F7" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="102">
         <v>43682</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="102">
         <v>43686</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="103"/>
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="28" t="s">
         <v>223</v>
       </c>
@@ -4691,22 +4795,24 @@
       <c r="F8" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="102">
         <v>43682</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="102">
         <v>43686</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="103"/>
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="28" t="s">
         <v>225</v>
       </c>
@@ -4716,21 +4822,23 @@
       <c r="F9" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="102">
         <v>43682</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="102">
         <v>43685</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="103"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="52" t="s">
         <v>228</v>
       </c>
@@ -4743,21 +4851,23 @@
       <c r="F10" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="102">
         <v>43685</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="102">
         <v>43686</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="69"/>
+      <c r="I10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="103"/>
       <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="52" t="s">
         <v>232</v>
       </c>
@@ -4770,22 +4880,24 @@
       <c r="F11" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="102">
         <v>43689</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="102">
         <v>43690</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="103"/>
       <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>11</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="94" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -4797,22 +4909,24 @@
       <c r="F12" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="102">
         <v>43691</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="102">
         <v>43692</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="69"/>
+      <c r="I12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="103"/>
       <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>12</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="28" t="s">
         <v>90</v>
       </c>
@@ -4822,24 +4936,26 @@
       <c r="F13" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="102">
         <v>43691</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="102">
         <v>43692</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="69"/>
+      <c r="I13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="103"/>
       <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>13</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="94" t="s">
         <v>240</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -4851,22 +4967,24 @@
       <c r="F14" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="102">
         <v>43692</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="102">
         <v>43707</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="69"/>
+      <c r="I14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="103"/>
       <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="28" t="s">
         <v>243</v>
       </c>
@@ -4876,22 +4994,24 @@
       <c r="F15" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="102">
         <v>43692</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="102">
         <v>43707</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="69"/>
+      <c r="I15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="103"/>
       <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>15</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="99"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="28" t="s">
         <v>245</v>
       </c>
@@ -4901,22 +5021,24 @@
       <c r="F16" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="102">
         <v>43692</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="102">
         <v>43707</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="69"/>
+      <c r="I16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="103"/>
       <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>16</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="28" t="s">
         <v>247</v>
       </c>
@@ -4926,22 +5048,24 @@
       <c r="F17" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="102">
         <v>43692</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="102">
         <v>43707</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="69"/>
+      <c r="I17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="103"/>
       <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>17</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="99"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="28" t="s">
         <v>249</v>
       </c>
@@ -4951,22 +5075,24 @@
       <c r="F18" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="102">
         <v>43692</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="102">
         <v>43707</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="69"/>
+      <c r="I18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="103"/>
       <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>18</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="28" t="s">
         <v>251</v>
       </c>
@@ -4976,22 +5102,24 @@
       <c r="F19" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="102">
         <v>43692</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="102">
         <v>43707</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="69"/>
+      <c r="I19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="103"/>
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>19</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="28" t="s">
         <v>253</v>
       </c>
@@ -5001,22 +5129,24 @@
       <c r="F20" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="102">
         <v>43692</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="102">
         <v>43707</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="69"/>
+      <c r="I20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="103"/>
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>20</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="28" t="s">
         <v>255</v>
       </c>
@@ -5026,21 +5156,23 @@
       <c r="F21" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="102">
         <v>43692</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="102">
         <v>43707</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="69"/>
+      <c r="I21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="103"/>
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>21</v>
       </c>
-      <c r="B22" s="96"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="52" t="s">
         <v>257</v>
       </c>
@@ -5053,21 +5185,23 @@
       <c r="F22" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="102">
         <v>43692</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="102">
         <v>43707</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="69"/>
+      <c r="I22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="103"/>
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>22</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="90" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -5082,21 +5216,23 @@
       <c r="F23" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="102">
         <v>43672</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="102">
         <v>43676</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="69"/>
+      <c r="I23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="103"/>
       <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>23</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="52" t="s">
         <v>263</v>
       </c>
@@ -5109,21 +5245,23 @@
       <c r="F24" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="102">
         <v>43672</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="102">
         <v>43676</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="69"/>
+      <c r="I24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="103"/>
       <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="51">
         <v>24</v>
       </c>
-      <c r="B25" s="96"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="52" t="s">
         <v>266</v>
       </c>
@@ -5136,21 +5274,23 @@
       <c r="F25" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="102">
         <v>43672</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="102">
         <v>43676</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="69"/>
+      <c r="I25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="103"/>
       <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="51">
         <v>25</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="90" t="s">
         <v>215</v>
       </c>
       <c r="C26" s="52" t="s">
@@ -5165,21 +5305,23 @@
       <c r="F26" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="102">
         <v>43678</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="102">
         <v>43679</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="103"/>
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="51">
         <v>26</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="52" t="s">
         <v>216</v>
       </c>
@@ -5192,21 +5334,23 @@
       <c r="F27" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="102">
         <v>43676</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="102">
         <v>43677</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="69"/>
+      <c r="I27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="103"/>
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="51">
         <v>27</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="52" t="s">
         <v>220</v>
       </c>
@@ -5219,21 +5363,25 @@
       <c r="F28" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="102">
         <v>43678</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="102">
         <v>43682</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="69"/>
+      <c r="I28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="103" t="s">
+        <v>403</v>
+      </c>
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="51">
         <v>28</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="52" t="s">
         <v>228</v>
       </c>
@@ -5246,21 +5394,23 @@
       <c r="F29" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="102">
         <v>43683</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="102">
         <v>43683</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="69"/>
+      <c r="I29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="103"/>
       <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="51">
         <v>29</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="90" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="52" t="s">
@@ -5275,21 +5425,23 @@
       <c r="F30" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="102">
         <v>43679</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="102">
         <v>43683</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="69"/>
+      <c r="I30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="103"/>
       <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="51">
         <v>30</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="52" t="s">
         <v>123</v>
       </c>
@@ -5302,21 +5454,23 @@
       <c r="F31" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="102">
         <v>43679</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="102">
         <v>43683</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="69"/>
+      <c r="I31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="103"/>
       <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="51">
         <v>31</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="91" t="s">
         <v>215</v>
       </c>
       <c r="C32" s="52" t="s">
@@ -5331,22 +5485,24 @@
       <c r="F32" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="102">
         <v>43684</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="102">
         <v>43684</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="69"/>
+      <c r="I32" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="103"/>
       <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="51">
         <v>32</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="98" t="s">
+      <c r="B33" s="91"/>
+      <c r="C33" s="94" t="s">
         <v>220</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -5358,22 +5514,24 @@
       <c r="F33" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="102">
         <v>43685</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="102">
         <v>43686</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="69"/>
+      <c r="I33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="103"/>
       <c r="K33" s="50"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="51">
         <v>33</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="100"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="28" t="s">
         <v>287</v>
       </c>
@@ -5383,21 +5541,23 @@
       <c r="F34" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="102">
         <v>43685</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="102">
         <v>43686</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="69"/>
+      <c r="I34" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="103"/>
       <c r="K34" s="50"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="51">
         <v>34</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="52" t="s">
         <v>228</v>
       </c>
@@ -5410,21 +5570,23 @@
       <c r="F35" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="102">
         <v>43689</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="102">
         <v>43689</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="69"/>
+      <c r="I35" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="103"/>
       <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="51">
         <v>35</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="52" t="s">
         <v>290</v>
       </c>
@@ -5437,21 +5599,23 @@
       <c r="F36" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="102">
         <v>43691</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="102">
         <v>43692</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="69"/>
+      <c r="I36" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="103"/>
       <c r="K36" s="50"/>
     </row>
     <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="51">
         <v>36</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="52" t="s">
         <v>290</v>
       </c>
@@ -5464,19 +5628,21 @@
       <c r="F37" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="102">
         <v>43691</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="102">
         <v>43692</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="69"/>
+      <c r="I37" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="103"/>
       <c r="K37" s="50"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="51"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="55" t="s">
         <v>291</v>
       </c>
       <c r="C38" s="52" t="s">
@@ -5491,24 +5657,26 @@
       <c r="F38" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="102">
         <v>43699</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="102">
         <v>43699</v>
       </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="69"/>
+      <c r="I38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="103"/>
       <c r="K38" s="50"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="51">
         <v>37</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="93" t="s">
         <v>294</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -5520,22 +5688,24 @@
       <c r="F39" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G39" s="53">
+      <c r="G39" s="102">
         <v>43693</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="102">
         <v>43707</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="69"/>
+      <c r="I39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="103"/>
       <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="51">
         <v>38</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="97"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="28" t="s">
         <v>297</v>
       </c>
@@ -5545,22 +5715,24 @@
       <c r="F40" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="102">
         <v>43693</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="102">
         <v>43707</v>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="69"/>
+      <c r="I40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="103"/>
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="51">
         <v>39</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="97"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="28" t="s">
         <v>299</v>
       </c>
@@ -5570,22 +5742,24 @@
       <c r="F41" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="102">
         <v>43693</v>
       </c>
-      <c r="H41" s="53">
+      <c r="H41" s="102">
         <v>43707</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="69"/>
+      <c r="I41" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="103"/>
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="51">
         <v>40</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="28" t="s">
         <v>302</v>
       </c>
@@ -5595,22 +5769,24 @@
       <c r="F42" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G42" s="53">
+      <c r="G42" s="102">
         <v>43693</v>
       </c>
-      <c r="H42" s="53">
+      <c r="H42" s="102">
         <v>43707</v>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="69"/>
+      <c r="I42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="103"/>
       <c r="K42" s="50"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="51">
         <v>41</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="28" t="s">
         <v>304</v>
       </c>
@@ -5620,22 +5796,24 @@
       <c r="F43" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="102">
         <v>43709</v>
       </c>
-      <c r="H43" s="53">
+      <c r="H43" s="102">
         <v>43738</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="69"/>
+      <c r="I43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="103"/>
       <c r="K43" s="50"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="51">
         <v>42</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="28" t="s">
         <v>306</v>
       </c>
@@ -5645,18 +5823,26 @@
       <c r="F44" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="102">
         <v>43709</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H44" s="102">
         <v>43738</v>
       </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="69"/>
+      <c r="I44" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="103"/>
       <c r="K44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B14:B22"/>
@@ -5666,14 +5852,31 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I44">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I44">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="进行中">
+      <formula>NOT(ISERROR(SEARCH("进行中",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="进行中">
+      <formula>NOT(ISERROR(SEARCH("进行中",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I44" xr:uid="{A88F76BA-7EEC-4BAE-8446-0542441BA7D4}">
+      <formula1>"未开始,进行中,已完成,提前完成,滞后已完成,滞后未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5681,54 +5884,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="24.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="31" style="54" customWidth="1"/>
-    <col min="4" max="4" width="29" style="80" customWidth="1"/>
-    <col min="5" max="5" width="21" style="55" customWidth="1"/>
-    <col min="6" max="6" width="16" style="84" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="84" customWidth="1"/>
-    <col min="8" max="8" width="66.75" style="55" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="54" customWidth="1"/>
-    <col min="10" max="11" width="8.875" style="54"/>
-    <col min="12" max="12" width="9" style="70" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="54"/>
+    <col min="1" max="1" width="7.125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="68" customWidth="1"/>
+    <col min="3" max="3" width="31" style="53" customWidth="1"/>
+    <col min="4" max="4" width="29" style="77" customWidth="1"/>
+    <col min="5" max="5" width="21" style="54" customWidth="1"/>
+    <col min="6" max="6" width="16" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="34" style="107" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="53"/>
+    <col min="12" max="12" width="9" style="67" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="104" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5736,1033 +5939,1145 @@
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>349</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="78">
         <v>43710</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="78">
         <v>43721</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="76"/>
+      <c r="H2" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="49">
         <v>2</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="90" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>374</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="78">
         <v>43717</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="78">
         <v>43721</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="49">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="78">
         <v>43722</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="78">
         <v>43725</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="76"/>
+      <c r="H4" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="49">
         <v>4</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="78">
         <v>43726</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="78">
         <v>43728</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="49">
         <v>5</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="78">
         <v>43729</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="78">
         <v>43730</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="49">
         <v>6</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="78">
         <v>43731</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="78">
         <v>43732</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="49">
         <v>7</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="78">
         <v>43733</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="78">
         <v>43738</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="49">
         <v>8</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="78">
         <v>43743</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="78">
         <v>43748</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="76"/>
+      <c r="H9" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="49">
         <v>9</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="90" t="s">
         <v>343</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="78"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="78">
         <v>43717</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="78">
         <v>43726</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="49">
         <v>10</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="78">
         <v>43727</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="78">
         <v>43730</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="76"/>
+      <c r="H11" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="49">
         <v>11</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="74" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="85">
         <v>43731</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="85">
         <v>43733</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="106"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="49">
         <v>12</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="78">
         <v>43734</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="78">
         <v>43734</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="76"/>
+      <c r="H13" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="49">
         <v>13</v>
       </c>
-      <c r="B14" s="96"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="78">
         <v>43743</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="78">
         <v>43746</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="76"/>
+      <c r="H14" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="49">
         <v>14</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="90" t="s">
         <v>344</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="78">
         <v>43735</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="78">
         <v>43738</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="49">
         <v>15</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="75" t="s">
         <v>362</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="78">
         <v>43747</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="78">
         <v>43750</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="76"/>
+      <c r="H16" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="49">
         <v>16</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="78">
         <v>43751</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="78">
         <v>43751</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="49">
         <v>17</v>
       </c>
-      <c r="B18" s="96"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="78">
         <v>43752</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="83">
         <v>43754</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="49">
         <v>18</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="97" t="s">
         <v>345</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="78">
         <v>43749</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="79">
         <v>43749</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="76"/>
+      <c r="H19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="49">
         <v>19</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="78">
         <v>43750</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="79">
         <v>43752</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="76"/>
+      <c r="H20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="49">
         <v>20</v>
       </c>
-      <c r="B21" s="101"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="78">
         <v>43753</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="79">
         <v>43754</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="76"/>
+      <c r="H21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="49">
         <v>21</v>
       </c>
-      <c r="B22" s="101"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="81">
         <v>43754</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="82">
         <v>43756</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="76"/>
+      <c r="H22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="49">
         <v>22</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="90" t="s">
         <v>399</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="81">
         <v>43757</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="88">
         <v>43759</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="76"/>
+      <c r="H23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="49">
         <v>23</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="81">
         <v>43760</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="88">
         <v>43762</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="76"/>
+      <c r="H24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="49">
         <v>24</v>
       </c>
-      <c r="B25" s="96"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="81">
         <v>43759</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="82">
         <v>43765</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A26" s="49">
         <v>25</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="98" t="s">
         <v>346</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="78">
         <v>43710</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="78">
         <v>43720</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="76"/>
+      <c r="H26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A27" s="49">
         <v>26</v>
       </c>
-      <c r="B27" s="102"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="78">
         <v>43722</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="78">
         <v>43723</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="76"/>
+      <c r="H27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A28" s="49">
         <v>27</v>
       </c>
-      <c r="B28" s="102"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="78">
         <v>43722</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="78">
         <v>43723</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="76"/>
+      <c r="H28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A29" s="49">
         <v>28</v>
       </c>
-      <c r="B29" s="102"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="78">
         <v>43724</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="78">
         <v>43729</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="76"/>
+      <c r="H29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A30" s="49">
         <v>29</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="78">
         <v>43730</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="78">
         <v>43734</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="76"/>
+      <c r="H30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A31" s="49">
         <v>30</v>
       </c>
-      <c r="B31" s="102"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="78">
         <v>43735</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="78">
         <v>43739</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="76"/>
+      <c r="H31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A32" s="49">
         <v>31</v>
       </c>
-      <c r="B32" s="102"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="78"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="78">
         <v>43740</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="78">
         <v>43745</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="76"/>
+      <c r="H32" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A33" s="49">
         <v>32</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="78">
         <v>43746</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="78">
         <v>43750</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="76"/>
+      <c r="H33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A34" s="49">
         <v>33</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="78">
         <v>43751</v>
       </c>
-      <c r="G34" s="86">
+      <c r="G34" s="83">
         <v>43754</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="76"/>
+      <c r="H34" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A35" s="49">
         <v>34</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="78">
         <v>43755</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="78">
         <v>43759</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A36" s="49">
         <v>35</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="78">
         <v>43760</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="78">
         <v>43762</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="76"/>
+      <c r="H36" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A37" s="49">
         <v>36</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="D37" s="87" t="s">
         <v>395</v>
       </c>
       <c r="E37" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="78">
         <v>43724</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="78">
         <v>43738</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="76"/>
+      <c r="H37" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="105"/>
     </row>
     <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A38" s="49">
         <v>37</v>
       </c>
-      <c r="B38" s="102"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="78">
         <v>43755</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="78">
         <v>43760</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="76"/>
+      <c r="H38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="105"/>
     </row>
     <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A39" s="49">
         <v>38</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="78">
         <v>43755</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="78">
         <v>43760</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="76"/>
+      <c r="H39" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="105"/>
     </row>
     <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A40" s="49">
         <v>39</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="78">
         <v>43761</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="79">
         <v>43763</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="76"/>
+      <c r="H40" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A41" s="49">
         <v>40</v>
       </c>
-      <c r="B41" s="102"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="75" t="s">
         <v>372</v>
       </c>
       <c r="E41" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="78">
         <v>43761</v>
       </c>
-      <c r="G41" s="90">
+      <c r="G41" s="86">
         <v>43763</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="105"/>
     </row>
     <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A42" s="49">
         <v>41</v>
       </c>
-      <c r="B42" s="102"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="78">
         <v>43764</v>
       </c>
-      <c r="G42" s="86">
+      <c r="G42" s="83">
         <v>43766</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="105"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="49">
         <v>42</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F43" s="80">
         <v>43762</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G43" s="80">
         <v>43765</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="105"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="49">
         <v>43</v>
       </c>
-      <c r="B44" s="95"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="78">
         <v>43766</v>
       </c>
-      <c r="G44" s="82">
+      <c r="G44" s="79">
         <v>43768</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="76"/>
+      <c r="H44" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="49">
         <v>44</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="76" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="78">
         <v>43767</v>
       </c>
-      <c r="G45" s="82">
+      <c r="G45" s="79">
         <v>43768</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="76"/>
+      <c r="H45" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="49">
-        <v>45</v>
-      </c>
-      <c r="B46" s="96"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="75"/>
+      <c r="E46" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="80">
+        <v>43770</v>
+      </c>
+      <c r="G46" s="80">
+        <v>43777</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="49">
-        <v>46</v>
-      </c>
-      <c r="B47" s="101" t="s">
-        <v>348</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B47" s="97"/>
       <c r="C47" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="78"/>
+        <v>128</v>
+      </c>
+      <c r="D47" s="75"/>
       <c r="E47" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="83">
+      <c r="F47" s="80">
         <v>43770</v>
       </c>
-      <c r="G47" s="83">
+      <c r="G47" s="80">
         <v>43777</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="49">
-        <v>47</v>
-      </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="83">
-        <v>43770</v>
-      </c>
-      <c r="G48" s="83">
-        <v>43777</v>
-      </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="76"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="76"/>
+      <c r="H48" s="81"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H49" s="81"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H50" s="81"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H51" s="81"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H52" s="81"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H53" s="81"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H54" s="81"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H55" s="81"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H56" s="81"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H57" s="81"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H58" s="81"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H59" s="81"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H60" s="81"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H61" s="81"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H62" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B18"/>
@@ -6771,6 +7086,21 @@
     <mergeCell ref="B23:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H2:H47">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="进行中">
+      <formula>NOT(ISERROR(SEARCH("进行中",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H47" xr:uid="{5C007188-E7DE-4611-A6E4-6F85FFCC82F6}">
+      <formula1>"未开始,进行中,已完成,提前完成,滞后已完成,滞后未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6813,7 +7143,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6831,7 +7161,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
@@ -6847,7 +7177,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="104"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
@@ -6865,7 +7195,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="104"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
@@ -6883,7 +7213,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
@@ -6899,7 +7229,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
@@ -6915,7 +7245,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A8" s="104"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
@@ -6931,7 +7261,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
